--- a/data/Historico de Robos Mercadolibre.xlsx
+++ b/data/Historico de Robos Mercadolibre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/RiesgoMeli/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8058A1E9-B40A-4965-8262-0D06762B44B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{8058A1E9-B40A-4965-8262-0D06762B44B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E57495-1D66-4746-83B1-08D909FC40E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B925DBE-BA80-47C6-B7A5-1C62EF336B38}"/>
   </bookViews>
@@ -19,23 +19,22 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="ApiKey">#REF!</definedName>
-    <definedName name="daygrid2">[2]!días2+[2]!semanas2*7</definedName>
+    <definedName name="daygrid2">[1]!días2+[1]!semanas2*7</definedName>
     <definedName name="daypattern">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
-    <definedName name="DayToStart">'[3]2019-Oct'!$E$1</definedName>
-    <definedName name="DayToStart2">[4]Indicadores!$AJ$37</definedName>
+    <definedName name="DayToStart">'[2]2019-Oct'!$E$1</definedName>
+    <definedName name="DayToStart2">[3]Indicadores!$AJ$37</definedName>
     <definedName name="días_laborables">{"LUNES","MARTES","MIÉRCOLES","JUEVES","VIERNES","SÁBADO","DOMINGO"}</definedName>
     <definedName name="días2">{0,1,2,3,4,5,6}</definedName>
     <definedName name="meses2">{"ENERO","FEBRERO","MARZO","ABRIL","MAYO","JUNIO","JULIO","AGOSTO","SEPTIEMBRE","OCTUBRE","NOVIEMBRE","DICIEMBRE"}</definedName>
-    <definedName name="MonthToDisplay2">[4]Indicadores!$AH$37</definedName>
+    <definedName name="MonthToDisplay2">[3]Indicadores!$AH$37</definedName>
     <definedName name="ndxB">#N/A</definedName>
     <definedName name="opción_díadelasemana">MATCH(DayToStart,weekdays_reversed,0)-2</definedName>
     <definedName name="semanas2">{0;1;2;3;4;5;6}</definedName>
     <definedName name="weekdays_reversed">{"DOMINGO","SÁBADO","VIERNES","JUEVES","MIÉRCOLES","MARTES","LUNES"}</definedName>
-    <definedName name="YearToDisplay2">[4]Indicadores!$AG$37</definedName>
+    <definedName name="YearToDisplay2">[3]Indicadores!$AG$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="230">
   <si>
     <t>Circuito Exterior Mexiquense Bicentenario</t>
   </si>
@@ -72,9 +71,6 @@
     <t>octubre</t>
   </si>
   <si>
-    <t xml:space="preserve"> CULIACAN (SCU1)</t>
-  </si>
-  <si>
     <t>TLANEPANTLA DE BAZ (MXXEM1)</t>
   </si>
   <si>
@@ -108,9 +104,6 @@
     <t>JALISCO</t>
   </si>
   <si>
-    <t xml:space="preserve"> MXXLE1 HIBRIDO </t>
-  </si>
-  <si>
     <t>LEON GUANAJUATO (SLE1)</t>
   </si>
   <si>
@@ -138,9 +131,6 @@
     <t>miércoles</t>
   </si>
   <si>
-    <t xml:space="preserve"> QUERÉTARO (SQR1)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> JORGE GUERRERO, LT</t>
   </si>
   <si>
@@ -258,24 +248,15 @@
     <t>Agosto</t>
   </si>
   <si>
-    <t xml:space="preserve"> VILLAHERMOSA (SVH1)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> EDGAR JOAQUIN HERNANDEZ</t>
   </si>
   <si>
-    <t xml:space="preserve"> VERACRUZ ML </t>
-  </si>
-  <si>
     <t xml:space="preserve"> CONCEPCION CERVANDO ANZUREZ</t>
   </si>
   <si>
     <t>Julio</t>
   </si>
   <si>
-    <t xml:space="preserve"> QUERETARO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CESAR ALBERTO VEGA</t>
   </si>
   <si>
@@ -288,9 +269,6 @@
     <t>Junio</t>
   </si>
   <si>
-    <t xml:space="preserve"> MXRC01 HIBRIDO</t>
-  </si>
-  <si>
     <t>TOLUCA (STL1)</t>
   </si>
   <si>
@@ -300,18 +278,12 @@
     <t>Calle Industrial</t>
   </si>
   <si>
-    <t xml:space="preserve"> OBSERVATORIO (SMX3)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> EMANUEL MARTINEZ</t>
   </si>
   <si>
     <t>Autopista Córdoba - Puebla</t>
   </si>
   <si>
-    <t xml:space="preserve"> OAXACA (SOX1)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> JOSE RAMON SALAS</t>
   </si>
   <si>
@@ -321,9 +293,6 @@
     <t>Carretera Querétaro-San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve"> SALTILLO (SLW1)</t>
-  </si>
-  <si>
     <t>CPA LOGISTICS CENTER TLALNEPANTLA (MXCD04)</t>
   </si>
   <si>
@@ -342,9 +311,6 @@
     <t>NUEVO LEÓN</t>
   </si>
   <si>
-    <t xml:space="preserve"> LOMAS DE LA PAZ, APODACA (MXNL01)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> JOSE ANGEL BRAVO</t>
   </si>
   <si>
@@ -633,9 +599,6 @@
     <t>Morelia - Salamanca</t>
   </si>
   <si>
-    <t xml:space="preserve"> GUADALAJARA MERCADO LIBRE</t>
-  </si>
-  <si>
     <t>TLALNEPANTLA DE BAZ</t>
   </si>
   <si>
@@ -657,9 +620,6 @@
     <t>Carretera Intenacional - San Juan Tuxco</t>
   </si>
   <si>
-    <t xml:space="preserve">  MIGUEL HIDALGO ,CDMX</t>
-  </si>
-  <si>
     <t>251950 CUAUTITLAN IZCALLI</t>
   </si>
   <si>
@@ -681,9 +641,6 @@
     <t>VERACRUZ</t>
   </si>
   <si>
-    <t xml:space="preserve"> VERACRUZ VERACRUZ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MONITOREO</t>
   </si>
   <si>
@@ -751,6 +708,45 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>MIGUEL HIDALGO ,CDMX</t>
+  </si>
+  <si>
+    <t>VERACRUZ VERACRUZ</t>
+  </si>
+  <si>
+    <t>GUADALAJARA MERCADO LIBRE</t>
+  </si>
+  <si>
+    <t>CROSS DOCK TLANE. ML</t>
+  </si>
+  <si>
+    <t>VERACRUZ ML</t>
+  </si>
+  <si>
+    <t>SALTILLO (SLW1)</t>
+  </si>
+  <si>
+    <t>OBSERVATORIO (SMX3)</t>
+  </si>
+  <si>
+    <t>MXRC01 HIBRIDO</t>
+  </si>
+  <si>
+    <t>QUERETARO</t>
+  </si>
+  <si>
+    <t>VILLAHERMOSA (SVH1)</t>
+  </si>
+  <si>
+    <t>QUERÉTARO (SQR1)</t>
+  </si>
+  <si>
+    <t>MXXLE1 HIBRIDO</t>
+  </si>
+  <si>
+    <t>CULIACAN (SCU1)</t>
   </si>
 </sst>
 </file>
@@ -900,24 +896,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Historico"/>
-      <sheetName val="Mun+Tramo"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
       <sheetName val="HRobos"/>
@@ -934,7 +912,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -985,7 +963,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1352,77 +1330,77 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="V1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1433,40 +1411,40 @@
         <v>573100743</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O2" s="5">
         <v>27</v>
@@ -1487,10 +1465,10 @@
         <v>11</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="V2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1501,37 +1479,37 @@
         <v>593191683</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>2</v>
@@ -1555,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1566,40 +1544,40 @@
         <v>593224848</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O4" s="5">
         <v>17</v>
@@ -1620,10 +1598,10 @@
         <v>10</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1631,43 +1609,43 @@
         <v>44491.286192129628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O5" s="5">
         <v>22</v>
@@ -1688,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1699,43 +1677,43 @@
         <v>44517</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="L6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="N6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O6" s="5">
         <v>17</v>
@@ -1767,43 +1745,43 @@
         <v>44552</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O7" s="5">
         <v>22</v>
@@ -1824,10 +1802,10 @@
         <v>21</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1835,43 +1813,43 @@
         <v>44559</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O8" s="5">
         <v>29</v>
@@ -1892,10 +1870,10 @@
         <v>20</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1906,37 +1884,37 @@
         <v>623632894</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>2</v>
@@ -1960,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="V9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1974,40 +1952,40 @@
         <v>643807414</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O10" s="5">
         <v>29</v>
@@ -2028,10 +2006,10 @@
         <v>7</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2039,43 +2017,43 @@
         <v>44729</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O11" s="5">
         <v>17</v>
@@ -2096,10 +2074,10 @@
         <v>4</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="V11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2107,43 +2085,43 @@
         <v>44759</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O12" s="5">
         <v>17</v>
@@ -2172,43 +2150,43 @@
         <v>44765</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O13" s="5">
         <v>23</v>
@@ -2229,10 +2207,10 @@
         <v>4</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -2243,40 +2221,40 @@
         <v>694194103</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="N14" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O14" s="5">
         <v>23</v>
@@ -2297,10 +2275,10 @@
         <v>7</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2311,40 +2289,40 @@
         <v>694201020</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O15" s="5">
         <v>26</v>
@@ -2365,10 +2343,10 @@
         <v>18</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2376,40 +2354,40 @@
         <v>44854</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>2</v>
@@ -2436,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2444,43 +2422,43 @@
         <v>44866</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O17" s="5">
         <v>1</v>
@@ -2504,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -2512,43 +2490,43 @@
         <v>44878</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O18" s="5">
         <v>13</v>
@@ -2569,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -2577,43 +2555,43 @@
         <v>44887</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O19" s="5">
         <v>22</v>
@@ -2637,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -2645,43 +2623,43 @@
         <v>44925</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O20" s="5">
         <v>30</v>
@@ -2699,13 +2677,13 @@
         <v>44925.220138888886</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="V20" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -2713,43 +2691,43 @@
         <v>44919</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O21" s="5">
         <v>24</v>
@@ -2767,13 +2745,13 @@
         <v>44919.182638888888</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V21" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -2781,43 +2759,43 @@
         <v>44897</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O22" s="5">
         <v>2</v>
@@ -2835,13 +2813,13 @@
         <v>44897.263194444444</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -2852,37 +2830,37 @@
         <v>714454863</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>2</v>
@@ -2906,10 +2884,10 @@
         <v>7</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V23" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -2920,40 +2898,40 @@
         <v>724574182</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O24" s="5">
         <v>19</v>
@@ -2974,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -2985,40 +2963,40 @@
         <v>724595488</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O25" s="5">
         <v>27</v>
@@ -3039,10 +3017,10 @@
         <v>4</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="V25" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -3053,37 +3031,37 @@
         <v>734622055</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>2</v>
@@ -3107,10 +3085,10 @@
         <v>4</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -3121,37 +3099,37 @@
         <v>744747255</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>2</v>
@@ -3175,10 +3153,10 @@
         <v>3</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="V27" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -3189,40 +3167,40 @@
         <v>754761468</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O28" s="1">
         <v>3</v>
@@ -3243,10 +3221,10 @@
         <v>2</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -3257,40 +3235,40 @@
         <v>764857315</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O29" s="1">
         <v>7</v>
@@ -3311,10 +3289,10 @@
         <v>3</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V29" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -3325,40 +3303,40 @@
         <v>764876984</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="O30" s="1">
         <v>13</v>
@@ -3379,10 +3357,10 @@
         <v>21</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -3393,37 +3371,37 @@
         <v>764881211</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>2</v>
@@ -3450,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -3461,40 +3439,40 @@
         <v>764914584</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O32" s="1">
         <v>27</v>
@@ -3509,7 +3487,7 @@
         <v>-99.610770000000002</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T32" s="1">
         <v>14</v>
@@ -3518,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="V32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -3529,40 +3507,40 @@
         <v>774925043</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -3586,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="V33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -3597,40 +3575,40 @@
         <v>785029284</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O34" s="1">
         <v>10</v>
@@ -3651,10 +3629,10 @@
         <v>4</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -3665,40 +3643,40 @@
         <v>785015581</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O35" s="1">
         <v>4</v>
@@ -3719,10 +3697,10 @@
         <v>21</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -3733,40 +3711,40 @@
         <v>795119424</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L36" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="O36" s="1">
         <v>12</v>
@@ -3787,10 +3765,10 @@
         <v>5</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -3801,40 +3779,40 @@
         <v>795138262</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K37" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O37" s="1">
         <v>19</v>
@@ -3855,10 +3833,10 @@
         <v>7</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -3869,37 +3847,37 @@
         <v>795141649</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>2</v>
@@ -3923,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="U38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -3934,37 +3912,37 @@
         <v>795164396</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
-      </c>
-      <c r="L39" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>2</v>
@@ -3991,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="V39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -4002,40 +3980,40 @@
         <v>795135543</v>
       </c>
       <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="O40" s="1">
         <v>18</v>
@@ -4056,10 +4034,10 @@
         <v>23</v>
       </c>
       <c r="U40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -4070,40 +4048,40 @@
         <v>795134072</v>
       </c>
       <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" t="s">
-        <v>42</v>
-      </c>
-      <c r="J41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="O41" s="1">
         <v>18</v>
@@ -4124,10 +4102,10 @@
         <v>23</v>
       </c>
       <c r="U41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -4138,37 +4116,37 @@
         <v>795141834</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
-      </c>
-      <c r="L42" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>2</v>
@@ -4192,7 +4170,7 @@
         <v>3</v>
       </c>
       <c r="U42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -4200,43 +4178,43 @@
         <v>45203</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K43" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O43" s="1">
         <v>4</v>
@@ -4260,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="V43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -4268,37 +4246,37 @@
         <v>45204</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>3</v>
@@ -4325,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="U44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -4336,37 +4314,37 @@
         <v>45204</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K45" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" t="s">
         <v>4</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>3</v>
